--- a/data/evaluation/evaluation_South_Autumn_Lemons.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Lemons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2431.552611367127</v>
+        <v>2365.423579109063</v>
       </c>
       <c r="C3" t="n">
-        <v>15318779.51859319</v>
+        <v>15223884.35730287</v>
       </c>
       <c r="D3" t="n">
-        <v>3913.921245834309</v>
+        <v>3901.779639767329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06963593348434527</v>
+        <v>0.0753992547752852</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2378.48983847102</v>
+        <v>2374.126953577617</v>
       </c>
       <c r="C4" t="n">
-        <v>15106041.51673986</v>
+        <v>15180193.18332413</v>
       </c>
       <c r="D4" t="n">
-        <v>3886.649137334095</v>
+        <v>3896.176739230925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08255627039933533</v>
+        <v>0.07805277545846789</v>
       </c>
     </row>
     <row r="5">
